--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3508782.465763612</v>
+        <v>3502430.723222479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847137</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6717509.621513095</v>
+        <v>6716919.642122677</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>191.8838857532182</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.7962225077803</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>47.77614120445458</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.24059023834318</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.823346420431397</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.33113051566319</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>186.685932647625</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>358.4561457504264</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>81.8478961488009</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900323</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.2321749266054</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>30.02972461925562</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>167.0536582330029</v>
       </c>
       <c r="C8" t="n">
-        <v>284.945929814442</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>151.4695191109944</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>81.61838887131719</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>86.21993564328514</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>11.87843712116367</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,16 +1664,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>264.0286188592177</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879316</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730192</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943208</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003582</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.657375128174</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415742</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806962</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313973</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029521</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752495</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845351</v>
+        <v>20.92391191189586</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443522</v>
+        <v>48.81858568179598</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622528</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495921</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274707</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.971707662349</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046354</v>
+        <v>67.3261046778243</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074595</v>
+        <v>52.47323292810671</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258568</v>
+        <v>38.04694813994644</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546479</v>
+        <v>37.97339019282555</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523206</v>
+        <v>39.72284161259282</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762419</v>
+        <v>50.54167953498495</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419623</v>
+        <v>37.89393170155699</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536816</v>
+        <v>15.73364728272892</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982408</v>
+        <v>6.632145647184842</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253514</v>
+        <v>84.75808915271216</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595235</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865933</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734593</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942094</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.153147640922</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175984</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3746,7 +3746,7 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>27.36114573640303</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3758,7 +3758,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>98.2624966094991</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
@@ -3806,7 +3806,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3952,13 +3952,13 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
@@ -3977,7 +3977,7 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>174.7755653833956</v>
+        <v>151.3976180108105</v>
       </c>
       <c r="D44" t="n">
         <v>285.119878025267</v>
@@ -3995,7 +3995,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1607.290681131481</v>
+        <v>1586.42863550524</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.468574310049</v>
+        <v>1193.25313400817</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.468574310049</v>
+        <v>1193.25313400817</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.6696091247147</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8278554445741</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445741</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>234.3556359163626</v>
       </c>
       <c r="M2" t="n">
-        <v>1065.680985183617</v>
+        <v>735.5224189118136</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579474</v>
+        <v>1236.689201907265</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579474</v>
+        <v>1676.728802799593</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710995</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.043410696882</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="U2" t="n">
-        <v>1607.290681131481</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="V2" t="n">
-        <v>1607.290681131481</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.290681131481</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="X2" t="n">
-        <v>1607.290681131481</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1607.290681131481</v>
+        <v>1986.923381216637</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163389</v>
+        <v>505.9467430955101</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764311</v>
+        <v>355.2925126556023</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979115</v>
+        <v>225.2035452770826</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087992</v>
+        <v>88.75705438797036</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019193098</v>
+        <v>88.75705438797036</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019193098</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H3" t="n">
-        <v>63.94588019193098</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703888</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703888</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L3" t="n">
-        <v>526.0568244353522</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M3" t="n">
-        <v>1051.879713831208</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="N3" t="n">
-        <v>1577.702603227065</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.222885818046</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851944</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750008</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649877</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848786</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527427</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898494</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031781</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>936.677926381793</v>
+        <v>837.0572944609642</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094573003</v>
+        <v>657.7430775364714</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.2206878937177</v>
+        <v>45.37039298996714</v>
       </c>
       <c r="C4" t="n">
-        <v>617.2206878937177</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="D4" t="n">
-        <v>461.5875747962324</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E4" t="n">
-        <v>306.0287626554349</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375933</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>453.6904728646251</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937177</v>
+        <v>453.6904728646251</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937177</v>
+        <v>453.6904728646251</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937177</v>
+        <v>453.6904728646251</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.2206878937177</v>
+        <v>230.5784116812684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1523.539748999118</v>
+        <v>1207.456618650161</v>
       </c>
       <c r="C5" t="n">
-        <v>1523.539748999118</v>
+        <v>814.2811171530911</v>
       </c>
       <c r="D5" t="n">
-        <v>1523.539748999118</v>
+        <v>814.2811171530911</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.968099860102</v>
+        <v>411.6975922696357</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900804</v>
+        <v>49.62067737021507</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780834</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445741</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703888</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703888</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555677</v>
+        <v>397.697567906936</v>
       </c>
       <c r="M5" t="n">
-        <v>625.641384291289</v>
+        <v>898.8643509023869</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687145</v>
+        <v>1400.031133897838</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579474</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078516</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078516</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078516</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078516</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="W5" t="n">
-        <v>1920.030458078516</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="X5" t="n">
-        <v>1920.030458078516</v>
+        <v>1207.456618650161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1523.539748999118</v>
+        <v>1207.456618650161</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>664.7944632975766</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>514.1402328576688</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>384.0512654791492</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>247.6047745900369</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>123.1729684731687</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251273</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567663</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567663</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550795</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.193754865107</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.016644260963</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851944</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1847.932483130023</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1637.869339808665</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1415.329338179732</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1185.212092313019</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>995.9050146630307</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>816.590797738538</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0750982098502</v>
+        <v>523.5881907604576</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0750982098502</v>
+        <v>353.3830728264468</v>
       </c>
       <c r="D7" t="n">
-        <v>361.441985112365</v>
+        <v>353.3830728264468</v>
       </c>
       <c r="E7" t="n">
-        <v>361.441985112365</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="F7" t="n">
-        <v>361.441985112365</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G7" t="n">
-        <v>361.441985112365</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H7" t="n">
-        <v>205.963434073859</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093692</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703888</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="U7" t="n">
-        <v>517.0750982098502</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="V7" t="n">
-        <v>517.0750982098502</v>
+        <v>708.7962094517588</v>
       </c>
       <c r="W7" t="n">
-        <v>517.0750982098502</v>
+        <v>708.7962094517588</v>
       </c>
       <c r="X7" t="n">
-        <v>517.0750982098502</v>
+        <v>708.7962094517588</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.0750982098502</v>
+        <v>708.7962094517588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>495.4506444400291</v>
+        <v>2196.907436154955</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1292.436099230825</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>895.945390151426</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>230.6907545289714</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1681.115887455785</v>
+        <v>1580.711427684574</v>
       </c>
       <c r="C11" t="n">
-        <v>1382.881067245904</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D11" t="n">
-        <v>1092.38061974976</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>784.7377761534926</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>462.7840189706587</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>144.5619447458503</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V11" t="n">
-        <v>2858.790257196483</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W11" t="n">
-        <v>2582.731903451959</v>
+        <v>2482.327443680748</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.219979672204</v>
+        <v>2187.815519900993</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.669951879994</v>
+        <v>1886.265492108782</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443715</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592129</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252416</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042534</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.936224042534</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>714.2933804462666</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>392.3396232634328</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>74.11754903862429</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993114</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468835</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.523084255381</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343054</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>346.9752758473783</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>830.5413617456916</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6029,10 +6029,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238552</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452357</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6376,22 +6376,22 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6400,34 +6400,34 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>218.0146318563784</v>
@@ -6485,28 +6485,28 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6616,19 +6616,19 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.36701308464</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144936</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423751</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267696</v>
+        <v>87.68547930209952</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>235.8210363935788</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>594.8033924210406</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1088.123684139569</v>
       </c>
       <c r="M32" t="n">
-        <v>1638.01276416042</v>
+        <v>1634.12458418415</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797882</v>
+        <v>2161.935867821612</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690211</v>
+        <v>2716.845004202239</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462118</v>
+        <v>3065.032496333761</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243452</v>
+        <v>3249.878056474709</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152277</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491231</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448552</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281054</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382477</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748668</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079628</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398133</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304554</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.281773445272</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435852</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1499.619508970266</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.891702087393</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590224</v>
+        <v>341.6872565554798</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229153</v>
+        <v>288.6839909715337</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233339</v>
+        <v>250.252730224113</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804401</v>
+        <v>211.8957704333802</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913169</v>
+        <v>171.7716879964177</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886662</v>
+        <v>120.7194864459279</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806389</v>
+        <v>82.44278775748646</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304554</v>
+        <v>80.40002251286242</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>162.2350636228043</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667872</v>
+        <v>326.3627034966041</v>
       </c>
       <c r="M34" t="n">
-        <v>609.2873943454367</v>
+        <v>627.5238173231664</v>
       </c>
       <c r="N34" t="n">
-        <v>900.9675360170314</v>
+        <v>810.7134513543756</v>
       </c>
       <c r="O34" t="n">
-        <v>1172.162810699125</v>
+        <v>973.4182183960836</v>
       </c>
       <c r="P34" t="n">
-        <v>1400.529484116089</v>
+        <v>1208.163919660961</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.5848313923</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422781</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003234</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569372</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209176</v>
+        <v>947.3881441448298</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279044</v>
+        <v>798.6106513157187</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569858</v>
+        <v>632.4821015969609</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378727</v>
+        <v>515.6036317300086</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524199</v>
+        <v>409.6934228967165</v>
       </c>
     </row>
     <row r="35">
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,19 +7096,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,25 +7330,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1535.307263395241</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C41" t="n">
-        <v>1239.573013888305</v>
+        <v>1557.973630753167</v>
       </c>
       <c r="D41" t="n">
-        <v>951.5731370951057</v>
+        <v>1269.973753959968</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492441</v>
+        <v>964.8314810666462</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693552</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U41" t="n">
-        <v>2947.644907630508</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V41" t="n">
-        <v>2702.979350324159</v>
+        <v>2722.330510099756</v>
       </c>
       <c r="W41" t="n">
-        <v>2429.42156728258</v>
+        <v>2448.772727058177</v>
       </c>
       <c r="X41" t="n">
-        <v>2137.41021420577</v>
+        <v>2156.761373981367</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.360757116505</v>
+        <v>2156.761373981367</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E43" t="n">
         <v>286.5070848325922</v>
@@ -7558,46 +7558,46 @@
         <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K43" t="n">
         <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N43" t="n">
         <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1383.507071954779</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
@@ -7606,13 +7606,13 @@
         <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.347138735654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.618740970509</v>
+        <v>1710.900517632774</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835766</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042567</v>
+        <v>1269.973753959968</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492443</v>
+        <v>964.8314810666462</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693554</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474919</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411573</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.884082136961</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.884082136961</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2878.572604561693</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2878.572604561693</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2605.014821520113</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781039</v>
+        <v>2313.003468443304</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691773</v>
+        <v>2013.954011354038</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344862</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906086</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
         <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022401</v>
+        <v>564.8145793170085</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160337</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
         <v>1065.684527822772</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356543</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>202.9527526687869</v>
       </c>
       <c r="M2" t="n">
-        <v>176.2279061348584</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507701</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622978</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671526</v>
+        <v>421.1962343712213</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216676</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7036082878988</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>367.9446031643155</v>
       </c>
       <c r="M5" t="n">
-        <v>240.4627829469406</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507701</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.8840394331777</v>
+        <v>598.6161957820906</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671526</v>
+        <v>248.2100958242445</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N9" t="n">
-        <v>265.8235510992406</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,7 +8772,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>546.0917343741362</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10191,13 +10191,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>145.2325565835406</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.0778345637938</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>214.9725083336941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>27.53818568273959</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>274.729704427986</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812795</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>143.9564051237858</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>118.0013416284712</v>
+        <v>141.3792890010563</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>587780.9690170174</v>
+        <v>587480.1952101373</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>587780.9690170174</v>
+        <v>587480.1952101373</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555227.885578519</v>
+        <v>555227.8855785191</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>589967.2628908982</v>
+        <v>589967.2628908983</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557592.5452626174</v>
+        <v>557592.5452626176</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557592.5452626174</v>
+        <v>557592.5452626175</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>685262.2767547559</v>
+      </c>
+      <c r="C2" t="n">
         <v>685262.276754756</v>
       </c>
-      <c r="C2" t="n">
-        <v>685262.2767547561</v>
-      </c>
       <c r="D2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="E2" t="n">
         <v>644009.266196306</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963059</v>
+        <v>644009.2661963056</v>
       </c>
       <c r="G2" t="n">
+        <v>685262.2767547561</v>
+      </c>
+      <c r="H2" t="n">
         <v>685262.276754756</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>685262.2767547561</v>
       </c>
-      <c r="I2" t="n">
-        <v>685262.2767547562</v>
-      </c>
       <c r="J2" t="n">
-        <v>685262.2767547558</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="K2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547553</v>
+        <v>685262.2767547567</v>
       </c>
       <c r="M2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="N2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="O2" t="n">
-        <v>646817.2995711736</v>
+        <v>646817.2995711734</v>
       </c>
       <c r="P2" t="n">
         <v>646817.2995711735</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602629</v>
+        <v>26460.41160941808</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469668</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670094</v>
+        <v>46725.80335481236</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015684</v>
+        <v>18983.5598301568</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066572</v>
+        <v>187720.9480760004</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066572</v>
+        <v>187720.9480760004</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26436,16 +26436,16 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081436</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
+        <v>63659.04525391951</v>
+      </c>
+      <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
-      <c r="K5" t="n">
-        <v>63659.04525391951</v>
-      </c>
       <c r="L5" t="n">
-        <v>61305.21346446771</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260036.8707255982</v>
+        <v>263485.9951192526</v>
       </c>
       <c r="C6" t="n">
-        <v>438032.1678599493</v>
+        <v>433135.0009958027</v>
       </c>
       <c r="D6" t="n">
-        <v>431160.6467742746</v>
+        <v>423424.357550883</v>
       </c>
       <c r="E6" t="n">
-        <v>348300.6611856903</v>
+        <v>348192.1006315891</v>
       </c>
       <c r="F6" t="n">
-        <v>478753.5923234023</v>
+        <v>478645.0317693009</v>
       </c>
       <c r="G6" t="n">
         <v>463249.8465587456</v>
       </c>
       <c r="H6" t="n">
-        <v>492344.8024317601</v>
+        <v>492344.8024317598</v>
       </c>
       <c r="I6" t="n">
         <v>492344.8024317601</v>
       </c>
       <c r="J6" t="n">
-        <v>264259.15908201</v>
+        <v>270775.4442365833</v>
       </c>
       <c r="K6" t="n">
         <v>486105.0340289769</v>
       </c>
       <c r="L6" t="n">
-        <v>447210.6870963882</v>
+        <v>443161.8498859173</v>
       </c>
       <c r="M6" t="n">
-        <v>449613.5254973917</v>
+        <v>448561.8304862033</v>
       </c>
       <c r="N6" t="n">
         <v>492344.8024317601</v>
       </c>
       <c r="O6" t="n">
-        <v>460695.3316954802</v>
+        <v>460594.1607028915</v>
       </c>
       <c r="P6" t="n">
-        <v>479678.8915256368</v>
+        <v>479577.7205330484</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880693</v>
+        <v>831.877684307862</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087617</v>
+        <v>58.40725419351544</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165966</v>
+        <v>14.33013548902042</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769605</v>
+        <v>23.729449787696</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630909</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.70587225592</v>
+        <v>646.8007142757132</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455237</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630909</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>197.3598607288805</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>399.9292715775417</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>71.08307854439963</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>27.65279120986434</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>163.6797203342393</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>61.42154492349358</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>211.8717569869959</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>54.2693483348956</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>37.0113236000533</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019407738</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>93.35222891391271</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>233.2898271081284</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>229.43614002128</v>
       </c>
       <c r="C8" t="n">
-        <v>104.2978166676567</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>2.533704908395123</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634529518</v>
+        <v>5.636002634528495</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,11 +28986,11 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>5.636002634528637</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29104,7 +29104,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155857</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29223,10 +29223,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529575</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634528154</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29296,10 +29296,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.86974620214315</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>26.78466270502531</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539247</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539247</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>44.06419228855651</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539247</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539247</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.92237465268693</v>
+        <v>116.029833826564</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539247</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,16 +30414,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561692944</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561693076</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693052</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>49.70458293829518</v>
       </c>
       <c r="M2" t="n">
-        <v>26.5028545371311</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.134231712986</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712986</v>
+        <v>335.8241215170547</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="P3" t="n">
-        <v>30.62024346858416</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>214.6964334338238</v>
       </c>
       <c r="M5" t="n">
-        <v>90.73773134921339</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>447.4969173838658</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N6" t="n">
-        <v>531.134231712986</v>
+        <v>162.8379829700779</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>467.8947524111493</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>180.451438245074</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446907</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873215</v>
+        <v>193.8093140873204</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>460.7196215199696</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873201</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039228</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36835,7 +36835,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36911,13 +36911,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>170.9806279282321</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>578.3007233561168</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605124</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649839</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659144</v>
+        <v>78.41684924923068</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.98970481639743</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067167</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288835</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910036</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918829</v>
+        <v>237.1168699645221</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.37913866283942</v>
+        <v>119.4865978367164</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,16 +37710,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37950,13 +37950,13 @@
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>157.3360917548876</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708324</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0345504389505</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
@@ -38193,7 +38193,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
